--- a/V1000_Drive_Programmer/data/MT2510_CHARTS.XLSX
+++ b/V1000_Drive_Programmer/data/MT2510_CHARTS.XLSX
@@ -1,24 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sferry\source\repos\V1000_Drive_Programmer\V1000_Drive_Programmer\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="945" yWindow="0" windowWidth="22065" windowHeight="9870"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" r:id="rId1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}"/>
   </extLst>
 </workbook>
 </file>
@@ -349,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -380,6 +373,13 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="4">
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>51847_1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
